--- a/biology/Zoologie/Babakina/Babakina.xlsx
+++ b/biology/Zoologie/Babakina/Babakina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Babakina, unique représentant de la famille des Babakinidae, est un genre de nudibranches.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 avril 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 avril 2024) :
 Babakina anadoni (Ortea, 1979)
 Babakina caprinsulensis (M. C. Miller, 1974)
 Babakina festiva (Roller, 1972)
@@ -545,11 +559,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Babakina Roller, 1973[1].
-Initialement le malacologiste Richard A. Roller (d) (1930-1998) avait choisi en 1972 le nom générique Babaina[2] mais ce nom était déjà occupé[3]. Parallèlement, il a profité de cette rectification pour créer la famille des Babakinidae[3].
-Babakina a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Babakina Roller, 1973.
+Initialement le malacologiste Richard A. Roller (d) (1930-1998) avait choisi en 1972 le nom générique Babaina mais ce nom était déjà occupé. Parallèlement, il a profité de cette rectification pour créer la famille des Babakinidae.
+Babakina a pour synonymes :
 Babaina Roller, 1972 (non valide - déjà utilisé)
 Rioselleolis Ortea, 1979</t>
         </is>
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Richard A. Roller, « Babakina, new name for Babaina Roller, 1972, preoccupied », The Veliger, États-Unis, vol. 16, no 1,‎ 1973, p. 117-118 (ISSN 0042-3211, lire en ligne, consulté le 16 avril 2024).</t>
         </is>
